--- a/GUI + Reviews/202412/AEX BEL20.xlsx
+++ b/GUI + Reviews/202412/AEX BEL20.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\PM-Indices-IndexOperations\Management\Prive mappen\Amanda\Indices Review\2024-12\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://euronext-my.sharepoint.com/personal/csonneveld_euronext_com/Documents/Documents/Projects/GUI + Reviews/202412/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4BD66A7-D6A3-40A9-AF2B-A239C4DF8D89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="90" windowWidth="29040" windowHeight="17640" xr2:uid="{5BE24922-729F-40F8-A9BC-85D2ABCF231E}"/>
+    <workbookView xWindow="-315" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{5BE24922-729F-40F8-A9BC-85D2ABCF231E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -425,19 +425,6 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.00000000000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00000000000000"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -657,6 +644,19 @@
         <scheme val="minor"/>
       </font>
     </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.00000000000000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.00000000000000"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -671,14 +671,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AEA6AD8B-5DEA-4C35-85AD-369DCB2FA937}" name="Table2" displayName="Table2" ref="A1:G46" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11" tableBorderDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AEA6AD8B-5DEA-4C35-85AD-369DCB2FA937}" name="Table2" displayName="Table2" ref="A1:G46" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" tableBorderDxfId="7">
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{327FE7C1-3087-49A3-BC73-B8EF0EAAF99B}" name="Rank" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{5E6E1037-EEA6-4E8E-97FC-A86FD9E99449}" name="Company" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{C28FEF71-3F90-4C9F-8039-15DC02B682E6}" name="ISIN code" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{404AAF76-52B2-4BB5-9058-2B279655B83C}" name="Preliminary number of shares" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{10EC1380-6F33-4898-AA1A-2BAACEFD3B3E}" name="Preliminary free float" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{4EF2D5EC-F4BB-40D6-AA71-7C82FB63CDD2}" name="Preliminary capping*" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{327FE7C1-3087-49A3-BC73-B8EF0EAAF99B}" name="Rank" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{5E6E1037-EEA6-4E8E-97FC-A86FD9E99449}" name="Company" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{C28FEF71-3F90-4C9F-8039-15DC02B682E6}" name="ISIN code" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{404AAF76-52B2-4BB5-9058-2B279655B83C}" name="Preliminary number of shares" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{10EC1380-6F33-4898-AA1A-2BAACEFD3B3E}" name="Preliminary free float" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{4EF2D5EC-F4BB-40D6-AA71-7C82FB63CDD2}" name="Preliminary capping*" dataDxfId="1"/>
     <tableColumn id="7" xr3:uid="{E13332A6-E37D-4BA2-95B8-FB1880ED6B70}" name="Effective date of review" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -686,9 +686,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -726,7 +726,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -832,7 +832,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -974,7 +974,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -986,7 +986,7 @@
   <dimension ref="A1:G46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:F26"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2060,17 +2060,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D2:D21">
-    <cfRule type="expression" dxfId="3" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="3" stopIfTrue="1">
       <formula>$AB3&lt;&gt;VLOOKUP($AA3,#REF!,2,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F46">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="11" priority="1">
       <formula>F2-INT(F2)&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G46">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="10" priority="2">
       <formula>G2-INT(G2)&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
